--- a/Faster_(GanttPRO.com)_05.10.2022 10 27.xlsx
+++ b/Faster_(GanttPRO.com)_05.10.2022 10 27.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="10530"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Faster" state="visible" r:id="rId4"/>
+    <sheet name="Faster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -187,30 +190,38 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
+      <sz val="11"/>
       <color rgb="FF888888"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -222,17 +233,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00564c"/>
+        <fgColor rgb="FF00564C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1a7367"/>
+        <fgColor rgb="FF1A7367"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdafff0"/>
+        <fgColor rgb="FFDAFFF0"/>
       </patternFill>
     </fill>
     <fill>
@@ -269,18 +280,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -293,10 +295,22 @@
       <alignment indent="3"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,7 +327,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -323,7 +337,7 @@
     <xdr:ext cx="2286000" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -356,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,44 +380,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -433,12 +447,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -468,7 +482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,231 +491,177 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
     <col min="13" max="16" width="11" customWidth="1"/>
     <col min="19" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,43 +703,43 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,176 +781,176 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4">
-        <v>44839.31070177083</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>44839.310701770832</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="12"/>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>44838.375</v>
       </c>
-      <c r="G6" s="8">
-        <v>44841.52777777778</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="G6" s="5">
+        <v>44841.527777777781</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>52</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>27.67</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>24</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
         <v>44839.39163194444</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -1005,10 +965,10 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>44838.375</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>44838.441666666666</v>
       </c>
       <c r="H7" t="s">
@@ -1044,7 +1004,7 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="7">
         <v>44839.39163194444</v>
       </c>
       <c r="T7" t="s">
@@ -1061,7 +1021,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -1076,11 +1036,11 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>44838.375</v>
       </c>
-      <c r="G8" s="10">
-        <v>44840.52777777778</v>
+      <c r="G8" s="7">
+        <v>44840.527777777781</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -1089,7 +1049,7 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1115,8 +1075,8 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" s="10">
-        <v>44839.41466435185</v>
+      <c r="S8" s="7">
+        <v>44839.414664351847</v>
       </c>
       <c r="T8" t="s">
         <v>38</v>
@@ -1132,7 +1092,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -1147,11 +1107,11 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>44839.375</v>
       </c>
-      <c r="G9" s="10">
-        <v>44841.52777777778</v>
+      <c r="G9" s="7">
+        <v>44841.527777777781</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -1160,7 +1120,7 @@
         <v>50</v>
       </c>
       <c r="J9">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1186,8 +1146,8 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" s="10">
-        <v>44839.41912037037</v>
+      <c r="S9" s="7">
+        <v>44839.419120370367</v>
       </c>
       <c r="T9" t="s">
         <v>27</v>
@@ -1203,24 +1163,24 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="13"/>
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>44845.375</v>
       </c>
-      <c r="G10" s="10">
-        <v>44848.52777777778</v>
+      <c r="G10" s="7">
+        <v>44848.527777777781</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -1255,7 +1215,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="7">
         <v>44839.42255787037</v>
       </c>
       <c r="T10" t="s">
@@ -1272,24 +1232,24 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="13"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>44845.375</v>
       </c>
-      <c r="G11" s="10">
-        <v>44848.52777777778</v>
+      <c r="G11" s="7">
+        <v>44848.527777777781</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -1324,8 +1284,8 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="10">
-        <v>44839.43130787037</v>
+      <c r="S11" s="7">
+        <v>44839.431307870371</v>
       </c>
       <c r="T11" t="s">
         <v>27</v>
@@ -1341,24 +1301,24 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="13"/>
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>44852.375</v>
       </c>
-      <c r="G12" s="10">
-        <v>44853.52777777778</v>
+      <c r="G12" s="7">
+        <v>44853.527777777781</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -1393,8 +1353,8 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="10">
-        <v>44839.43224537037</v>
+      <c r="S12" s="7">
+        <v>44839.432245370372</v>
       </c>
       <c r="T12" t="s">
         <v>27</v>
@@ -1410,24 +1370,24 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="13"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>44854.375</v>
       </c>
-      <c r="G13" s="10">
-        <v>44855.52777777778</v>
+      <c r="G13" s="7">
+        <v>44855.527777777781</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -1462,7 +1422,7 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="7">
         <v>44839.432708333334</v>
       </c>
       <c r="T13" t="s">
@@ -1478,53 +1438,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A15:W15"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K2:W2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="L4:W4"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A15:W15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>